--- a/Baidu Baike administrative accounts.xlsx
+++ b/Baidu Baike administrative accounts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="269">
   <si>
     <t>冷威龙</t>
   </si>
@@ -807,8 +807,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">时间地点8
-</t>
+    <t>时间地点8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>残轩阁主</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fzlins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leesunky</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辰猫暮雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我乃野云鹤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dream_Riser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mark941</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>志锋的世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习之神18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为所以活着</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铅笔在飞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -816,7 +863,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -832,6 +879,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -841,12 +895,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -855,7 +924,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -864,6 +933,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1179,10 +1251,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6A9146-6E3E-4F20-9521-903DC7771541}">
-  <dimension ref="A1:C258"/>
+  <dimension ref="A1:D269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
-      <selection activeCell="A259" sqref="A258:A259"/>
+    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+      <selection activeCell="E277" sqref="E277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1192,2059 +1264,2933 @@
     <col min="3" max="3" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="3">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>241</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>240</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
         <v>1165774571</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C24" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="C26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
         <v>26</v>
       </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="C27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
         <v>27</v>
       </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="C28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
         <v>29</v>
       </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
         <v>31</v>
       </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="C32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
         <v>32</v>
       </c>
-      <c r="B32" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
         <v>33</v>
       </c>
-      <c r="B33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
         <v>34</v>
       </c>
-      <c r="B34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="C36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
         <v>36</v>
       </c>
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
         <v>37</v>
       </c>
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="C38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
         <v>38</v>
       </c>
-      <c r="B38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
         <v>39</v>
       </c>
-      <c r="B39" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="C40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
         <v>40</v>
       </c>
-      <c r="B40" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
         <v>41</v>
       </c>
-      <c r="B41" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="C42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
         <v>42</v>
       </c>
-      <c r="B42" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="C43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
         <v>43</v>
       </c>
-      <c r="B43" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
         <v>44</v>
       </c>
-      <c r="B44" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
         <v>45</v>
       </c>
-      <c r="B45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="C46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
         <v>46</v>
       </c>
-      <c r="B46" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="C47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
         <v>47</v>
       </c>
-      <c r="B47" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+      <c r="C48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
         <v>48</v>
       </c>
-      <c r="B48" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
         <v>49</v>
       </c>
-      <c r="B49" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+      <c r="C50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
         <v>50</v>
       </c>
-      <c r="B50" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
         <v>51</v>
       </c>
-      <c r="B51" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+      <c r="C52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
         <v>52</v>
       </c>
-      <c r="B52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="C53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
         <v>54</v>
       </c>
-      <c r="B53" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="C54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
         <v>55</v>
       </c>
-      <c r="B54" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+      <c r="C55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
         <v>56</v>
       </c>
-      <c r="B55" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
         <v>57</v>
       </c>
-      <c r="B56" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
         <v>58</v>
       </c>
-      <c r="B57" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+      <c r="C58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
         <v>59</v>
       </c>
-      <c r="B58" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+      <c r="C59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
         <v>60</v>
       </c>
-      <c r="B59" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="C60" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
         <v>61</v>
       </c>
-      <c r="B60" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="C61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
         <v>62</v>
       </c>
-      <c r="B61" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="C62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
         <v>63</v>
       </c>
-      <c r="B62" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
         <v>64</v>
       </c>
-      <c r="B63" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+      <c r="C64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
         <v>65</v>
       </c>
-      <c r="B64" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
         <v>66</v>
       </c>
-      <c r="B65" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
         <v>67</v>
       </c>
-      <c r="B66" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="C67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
         <v>68</v>
       </c>
-      <c r="B67" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="C68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
         <v>69</v>
       </c>
-      <c r="B68" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="C69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
         <v>70</v>
       </c>
-      <c r="B69" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
         <v>71</v>
       </c>
-      <c r="B70" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="C71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
         <v>72</v>
       </c>
-      <c r="B71" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="C72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
         <v>73</v>
       </c>
-      <c r="B72" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+      <c r="C73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
         <v>74</v>
       </c>
-      <c r="B73" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+      <c r="C74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
         <v>75</v>
       </c>
-      <c r="B74" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+      <c r="C75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
         <v>76</v>
       </c>
-      <c r="B75" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="C76" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
         <v>77</v>
       </c>
-      <c r="B76" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
         <v>78</v>
       </c>
-      <c r="B77" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="C78" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
         <v>79</v>
       </c>
-      <c r="B78" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+      <c r="C79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
         <v>80</v>
       </c>
-      <c r="B79" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+      <c r="C80" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
         <v>81</v>
       </c>
-      <c r="B80" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="C81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
         <v>82</v>
       </c>
-      <c r="B81" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+      <c r="C82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
         <v>83</v>
       </c>
-      <c r="B82" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="C83" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
         <v>84</v>
       </c>
-      <c r="B83" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+      <c r="C84" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
         <v>85</v>
       </c>
-      <c r="B84" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="C85" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
         <v>86</v>
       </c>
-      <c r="B85" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="C86" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
         <v>87</v>
       </c>
-      <c r="B86" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="C87" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
         <v>88</v>
       </c>
-      <c r="B87" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+      <c r="C88" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
         <v>89</v>
       </c>
-      <c r="B88" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
+      <c r="C89" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
         <v>90</v>
       </c>
-      <c r="B89" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="C90" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
         <v>91</v>
       </c>
-      <c r="B90" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="C91" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
         <v>92</v>
       </c>
-      <c r="B91" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="C92" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
         <v>93</v>
       </c>
-      <c r="B92" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="C93" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
         <v>94</v>
       </c>
-      <c r="B93" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+      <c r="C94" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
         <v>95</v>
       </c>
-      <c r="B94" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+      <c r="C95" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
         <v>96</v>
       </c>
-      <c r="B95" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
+      <c r="C96" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
         <v>97</v>
       </c>
-      <c r="B96" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
+      <c r="C97" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
         <v>98</v>
       </c>
-      <c r="B97" t="s">
+      <c r="C98" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
         <v>100</v>
       </c>
-      <c r="B98" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+      <c r="C99" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
         <v>101</v>
       </c>
-      <c r="B99" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="C100" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
         <v>102</v>
       </c>
-      <c r="B100" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="C101" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
         <v>103</v>
       </c>
-      <c r="B101" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="C102" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
         <v>104</v>
       </c>
-      <c r="B102" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+      <c r="C103" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
         <v>105</v>
       </c>
-      <c r="B103" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="C104" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
         <v>106</v>
       </c>
-      <c r="B104" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
+      <c r="C105" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
         <v>107</v>
       </c>
-      <c r="B105" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+      <c r="C106" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
         <v>108</v>
       </c>
-      <c r="B106" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+      <c r="C107" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
         <v>109</v>
       </c>
-      <c r="B107" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+      <c r="C108" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
         <v>110</v>
       </c>
-      <c r="B108" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+      <c r="C109" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
         <v>111</v>
       </c>
-      <c r="B109" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="C110" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
         <v>112</v>
       </c>
-      <c r="B110" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+      <c r="C111" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
         <v>113</v>
       </c>
-      <c r="B111" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+      <c r="C112" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
         <v>114</v>
       </c>
-      <c r="B112" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="C113" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
         <v>115</v>
       </c>
-      <c r="B113" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+      <c r="C114" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
         <v>116</v>
       </c>
-      <c r="B114" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
         <v>117</v>
       </c>
-      <c r="B115" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+      <c r="C116" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
         <v>118</v>
       </c>
-      <c r="B116" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+      <c r="C117" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
         <v>119</v>
       </c>
-      <c r="B117" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+      <c r="C118" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
         <v>120</v>
       </c>
-      <c r="B118" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+      <c r="C119" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
         <v>121</v>
       </c>
-      <c r="B119" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
+      <c r="C120" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
         <v>122</v>
       </c>
-      <c r="B120" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+      <c r="C121" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
         <v>123</v>
       </c>
-      <c r="B121" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
+      <c r="C122" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
         <v>124</v>
       </c>
-      <c r="B122" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+      <c r="C123" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
         <v>125</v>
       </c>
-      <c r="B123" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+      <c r="C124" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
         <v>126</v>
       </c>
-      <c r="B124" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+      <c r="C125" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
         <v>127</v>
       </c>
-      <c r="B125" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+      <c r="C126" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
         <v>128</v>
       </c>
-      <c r="B126" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+      <c r="C127" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
         <v>129</v>
       </c>
-      <c r="B127" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
+      <c r="C128" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
         <v>130</v>
       </c>
-      <c r="B128" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
+      <c r="C129" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
         <v>131</v>
       </c>
-      <c r="B129" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+      <c r="C130" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
         <v>132</v>
       </c>
-      <c r="B130" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+      <c r="C131" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
         <v>133</v>
       </c>
-      <c r="B131" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+      <c r="C132" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
         <v>134</v>
       </c>
-      <c r="B132" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+      <c r="C133" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
         <v>135</v>
       </c>
-      <c r="B133" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+      <c r="C134" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
         <v>136</v>
       </c>
-      <c r="B134" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+      <c r="C135" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
         <v>137</v>
       </c>
-      <c r="B135" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+      <c r="C136" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
         <v>138</v>
       </c>
-      <c r="B136" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
+      <c r="C137" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
         <v>139</v>
       </c>
-      <c r="B137" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
+      <c r="C138" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
         <v>140</v>
       </c>
-      <c r="B138" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
+      <c r="C139" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
         <v>141</v>
       </c>
-      <c r="B139" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+      <c r="C140" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
         <v>142</v>
       </c>
-      <c r="B140" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+      <c r="C141" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
         <v>143</v>
       </c>
-      <c r="B141" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+      <c r="C142" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
         <v>144</v>
       </c>
-      <c r="B142" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+      <c r="C143" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
         <v>145</v>
       </c>
-      <c r="B143" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+      <c r="C144" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
         <v>146</v>
       </c>
-      <c r="B144" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
+      <c r="C145" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
         <v>147</v>
       </c>
-      <c r="B145" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+      <c r="C146" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
         <v>148</v>
       </c>
-      <c r="B146" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+      <c r="C147" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
         <v>149</v>
       </c>
-      <c r="B147" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+      <c r="C148" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
         <v>150</v>
       </c>
-      <c r="B148" t="s">
+      <c r="C149" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
         <v>151</v>
       </c>
-      <c r="B149" t="s">
+      <c r="C150" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
         <v>153</v>
       </c>
-      <c r="B150" t="s">
+      <c r="C151" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
         <v>154</v>
       </c>
-      <c r="B151" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+      <c r="C152" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
         <v>155</v>
       </c>
-      <c r="B152" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+      <c r="C153" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
         <v>156</v>
       </c>
-      <c r="B153" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
+      <c r="C154" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
         <v>157</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C155" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="3">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
         <v>158</v>
       </c>
-      <c r="B155" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
+      <c r="C156" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="3">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
         <v>159</v>
       </c>
-      <c r="B156" t="s">
+      <c r="C157" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="3">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
         <v>161</v>
       </c>
-      <c r="B157" t="s">
+      <c r="C158" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="3">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
         <v>163</v>
       </c>
-      <c r="B158" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+      <c r="C159" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="3">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
         <v>164</v>
       </c>
-      <c r="B159" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+      <c r="C160" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="3">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
         <v>165</v>
       </c>
-      <c r="B160" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+      <c r="C161" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="3">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
         <v>166</v>
       </c>
-      <c r="B161" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
+      <c r="C162" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="3">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
         <v>167</v>
       </c>
-      <c r="B162" t="s">
+      <c r="C163" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="3">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
         <v>168</v>
       </c>
-      <c r="B163" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+      <c r="C164" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="3">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
         <v>169</v>
       </c>
-      <c r="B164" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+      <c r="C165" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="3">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
         <v>170</v>
       </c>
-      <c r="B165" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+      <c r="C166" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="3">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
         <v>46</v>
       </c>
-      <c r="B166" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
+      <c r="C167" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="3">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
         <v>171</v>
       </c>
-      <c r="B167" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
+      <c r="C168" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="3">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
         <v>172</v>
       </c>
-      <c r="B168" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+      <c r="C169" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="3">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
         <v>173</v>
       </c>
-      <c r="B169" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
+      <c r="C170" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="3">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
         <v>174</v>
       </c>
-      <c r="B170" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
+      <c r="C171" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="3">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
         <v>175</v>
       </c>
-      <c r="B171" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
+      <c r="C172" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="3">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
         <v>0</v>
       </c>
-      <c r="B172" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
+      <c r="C173" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="3">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
         <v>176</v>
       </c>
-      <c r="B173" t="s">
+      <c r="C174" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="3">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
         <v>177</v>
       </c>
-      <c r="B174" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
+      <c r="C175" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="3">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
         <v>178</v>
       </c>
-      <c r="B175" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
+      <c r="C176" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="3">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
         <v>179</v>
       </c>
-      <c r="B176" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+      <c r="C177" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="3">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
         <v>158</v>
       </c>
-      <c r="B177" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+      <c r="C178" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="3">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
         <v>180</v>
       </c>
-      <c r="B178" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
+      <c r="C179" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="3">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
         <v>181</v>
       </c>
-      <c r="B179" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
+      <c r="C180" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="3">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
         <v>182</v>
       </c>
-      <c r="B180" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
+      <c r="C181" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="3">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
         <v>183</v>
       </c>
-      <c r="B181" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
+      <c r="C182" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="3">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
         <v>184</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C183" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="3">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
         <v>185</v>
       </c>
-      <c r="B183" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
+      <c r="C184" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="3">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
         <v>186</v>
       </c>
-      <c r="B184" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
+      <c r="C185" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="3">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
         <v>187</v>
       </c>
-      <c r="B185" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
+      <c r="C186" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="3">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
         <v>188</v>
       </c>
-      <c r="B186" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
+      <c r="C187" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="3">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
         <v>189</v>
       </c>
-      <c r="B187" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
+      <c r="C188" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="3">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
         <v>190</v>
       </c>
-      <c r="B188" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
+      <c r="C189" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="3">
+        <v>188</v>
+      </c>
+      <c r="B190" t="s">
         <v>191</v>
       </c>
-      <c r="B189" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
+      <c r="C190" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="3">
+        <v>189</v>
+      </c>
+      <c r="B191" t="s">
         <v>192</v>
       </c>
-      <c r="B190" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
+      <c r="C191" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="3">
+        <v>190</v>
+      </c>
+      <c r="B192" t="s">
         <v>193</v>
       </c>
-      <c r="B191" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
+      <c r="C192" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="3">
+        <v>191</v>
+      </c>
+      <c r="B193" t="s">
         <v>194</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C193" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="3">
+        <v>192</v>
+      </c>
+      <c r="B194" t="s">
         <v>195</v>
       </c>
-      <c r="B193" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
+      <c r="C194" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="3">
+        <v>193</v>
+      </c>
+      <c r="B195" t="s">
         <v>196</v>
       </c>
-      <c r="B194" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
+      <c r="C195" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="3">
+        <v>194</v>
+      </c>
+      <c r="B196" t="s">
         <v>197</v>
       </c>
-      <c r="B195" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
+      <c r="C196" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="3">
+        <v>195</v>
+      </c>
+      <c r="B197" t="s">
         <v>198</v>
       </c>
-      <c r="B196" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
+      <c r="C197" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="3">
+        <v>196</v>
+      </c>
+      <c r="B198" t="s">
         <v>199</v>
       </c>
-      <c r="B197" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
+      <c r="C198" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="3">
+        <v>197</v>
+      </c>
+      <c r="B199" t="s">
         <v>200</v>
       </c>
-      <c r="B198" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
+      <c r="C199" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="3">
+        <v>198</v>
+      </c>
+      <c r="B200" t="s">
         <v>201</v>
       </c>
-      <c r="B199" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
+      <c r="C200" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="3">
+        <v>199</v>
+      </c>
+      <c r="B201" t="s">
         <v>202</v>
       </c>
-      <c r="B200" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
+      <c r="C201" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="3">
+        <v>200</v>
+      </c>
+      <c r="B202" t="s">
         <v>203</v>
       </c>
-      <c r="B201" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
+      <c r="C202" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="3">
+        <v>201</v>
+      </c>
+      <c r="B203" t="s">
         <v>204</v>
       </c>
-      <c r="B202" t="s">
+      <c r="C203" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="3">
+        <v>202</v>
+      </c>
+      <c r="B204" t="s">
         <v>205</v>
       </c>
-      <c r="B203" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
+      <c r="C204" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="3">
+        <v>203</v>
+      </c>
+      <c r="B205" t="s">
         <v>206</v>
       </c>
-      <c r="B204" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
+      <c r="C205" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" s="3">
+        <v>204</v>
+      </c>
+      <c r="B206" t="s">
         <v>207</v>
       </c>
-      <c r="B205" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
+      <c r="C206" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" s="3">
+        <v>205</v>
+      </c>
+      <c r="B207" t="s">
         <v>208</v>
       </c>
-      <c r="B206" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
+      <c r="C207" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" s="3">
+        <v>206</v>
+      </c>
+      <c r="B208" t="s">
         <v>209</v>
       </c>
-      <c r="B207" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
+      <c r="C208" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" s="3">
+        <v>207</v>
+      </c>
+      <c r="B209" t="s">
         <v>210</v>
       </c>
-      <c r="B208" t="s">
+      <c r="C209" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" s="3">
+        <v>208</v>
+      </c>
+      <c r="B210" t="s">
         <v>211</v>
       </c>
-      <c r="B209" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
+      <c r="C210" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" s="3">
+        <v>209</v>
+      </c>
+      <c r="B211" t="s">
         <v>212</v>
       </c>
-      <c r="B210" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
+      <c r="C211" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" s="3">
+        <v>210</v>
+      </c>
+      <c r="B212" t="s">
         <v>213</v>
       </c>
-      <c r="B211" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
+      <c r="C212" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" s="3">
+        <v>211</v>
+      </c>
+      <c r="B213" t="s">
         <v>214</v>
       </c>
-      <c r="B212" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
+      <c r="C213" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" s="3">
+        <v>212</v>
+      </c>
+      <c r="B214" t="s">
         <v>215</v>
       </c>
-      <c r="B213" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
+      <c r="C214" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" s="3">
+        <v>213</v>
+      </c>
+      <c r="B215" t="s">
         <v>216</v>
       </c>
-      <c r="B214" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
+      <c r="C215" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" s="3">
+        <v>214</v>
+      </c>
+      <c r="B216" t="s">
         <v>217</v>
       </c>
-      <c r="B215" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
+      <c r="C216" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" s="3">
+        <v>215</v>
+      </c>
+      <c r="B217" t="s">
         <v>218</v>
       </c>
-      <c r="B216" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
+      <c r="C217" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" s="3">
+        <v>216</v>
+      </c>
+      <c r="B218" t="s">
         <v>219</v>
       </c>
-      <c r="B217" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
+      <c r="C218" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" s="3">
+        <v>217</v>
+      </c>
+      <c r="B219" t="s">
         <v>220</v>
       </c>
-      <c r="B218" t="s">
+      <c r="C219" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" s="3">
+        <v>218</v>
+      </c>
+      <c r="B220" t="s">
         <v>221</v>
       </c>
-      <c r="B219" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
+      <c r="C220" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" s="3">
+        <v>219</v>
+      </c>
+      <c r="B221" t="s">
         <v>222</v>
       </c>
-      <c r="B220" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
+      <c r="C221" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" s="3">
+        <v>220</v>
+      </c>
+      <c r="B222" t="s">
         <v>223</v>
       </c>
-      <c r="B221" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A222" s="1">
+      <c r="C222" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" s="3">
+        <v>221</v>
+      </c>
+      <c r="B223" s="1">
         <v>363721182</v>
       </c>
-      <c r="B222" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
+      <c r="C223" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" s="3">
+        <v>222</v>
+      </c>
+      <c r="B224" t="s">
         <v>224</v>
       </c>
-      <c r="B223" t="s">
+      <c r="C224" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="3">
+        <v>223</v>
+      </c>
+      <c r="B225" t="s">
         <v>225</v>
       </c>
-      <c r="B224" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
+      <c r="C225" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" s="3">
+        <v>224</v>
+      </c>
+      <c r="B226" t="s">
         <v>226</v>
       </c>
-      <c r="B225" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
+      <c r="C226" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" s="3">
+        <v>225</v>
+      </c>
+      <c r="B227" t="s">
         <v>227</v>
       </c>
-      <c r="B226" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
+      <c r="C227" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" s="3">
+        <v>226</v>
+      </c>
+      <c r="B228" t="s">
         <v>228</v>
       </c>
-      <c r="B227" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
+      <c r="C228" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="3">
+        <v>227</v>
+      </c>
+      <c r="B229" t="s">
         <v>229</v>
       </c>
-      <c r="B228" t="s">
+      <c r="C229" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" s="3">
+        <v>228</v>
+      </c>
+      <c r="B230" t="s">
         <v>230</v>
       </c>
-      <c r="B229" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
+      <c r="C230" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" s="3">
+        <v>229</v>
+      </c>
+      <c r="B231" t="s">
         <v>231</v>
       </c>
-      <c r="B230" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
+      <c r="C231" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="3">
+        <v>230</v>
+      </c>
+      <c r="B232" t="s">
         <v>36</v>
       </c>
-      <c r="B231" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
+      <c r="C232" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" s="3">
+        <v>231</v>
+      </c>
+      <c r="B233" t="s">
         <v>232</v>
       </c>
-      <c r="B232" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
+      <c r="C233" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" s="3">
+        <v>232</v>
+      </c>
+      <c r="B234" t="s">
         <v>233</v>
       </c>
-      <c r="B233" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
+      <c r="C234" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" s="3">
+        <v>233</v>
+      </c>
+      <c r="B235" t="s">
         <v>234</v>
       </c>
-      <c r="B234" t="s">
+      <c r="C235" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" s="3">
+        <v>234</v>
+      </c>
+      <c r="B236" t="s">
         <v>235</v>
       </c>
-      <c r="B235" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
+      <c r="C236" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" s="3">
+        <v>235</v>
+      </c>
+      <c r="B237" t="s">
         <v>236</v>
       </c>
-      <c r="B236" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
+      <c r="C237" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" s="3">
+        <v>236</v>
+      </c>
+      <c r="B238" t="s">
         <v>237</v>
       </c>
-      <c r="B237" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
+      <c r="C238" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" s="3">
+        <v>237</v>
+      </c>
+      <c r="B239" t="s">
         <v>238</v>
       </c>
-      <c r="B238" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
+      <c r="C239" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" s="3">
+        <v>238</v>
+      </c>
+      <c r="B240" t="s">
         <v>239</v>
       </c>
-      <c r="B239" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
+      <c r="C240" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" s="3">
+        <v>239</v>
+      </c>
+      <c r="B241" t="s">
         <v>242</v>
       </c>
-      <c r="B240" t="s">
+      <c r="C241" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" s="3">
+        <v>240</v>
+      </c>
+      <c r="B242" t="s">
         <v>243</v>
       </c>
-      <c r="B241" t="s">
+      <c r="C242" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" s="3">
+        <v>241</v>
+      </c>
+      <c r="B243" t="s">
         <v>84</v>
       </c>
-      <c r="B242" t="s">
+      <c r="C243" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" s="3">
+        <v>242</v>
+      </c>
+      <c r="B244" t="s">
         <v>244</v>
       </c>
-      <c r="B243" t="s">
+      <c r="C244" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" s="3">
+        <v>243</v>
+      </c>
+      <c r="B245" t="s">
         <v>245</v>
       </c>
-      <c r="B244" t="s">
+      <c r="C245" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" s="3">
+        <v>244</v>
+      </c>
+      <c r="B246" t="s">
         <v>246</v>
       </c>
-      <c r="B245" t="s">
+      <c r="C246" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="3">
+        <v>245</v>
+      </c>
+      <c r="B247" t="s">
         <v>247</v>
       </c>
-      <c r="B246" t="s">
+      <c r="C247" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="3">
+        <v>246</v>
+      </c>
+      <c r="B248" t="s">
         <v>248</v>
       </c>
-      <c r="B247" t="s">
+      <c r="C248" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="3">
+        <v>247</v>
+      </c>
+      <c r="B249" t="s">
         <v>249</v>
       </c>
-      <c r="B248" t="s">
+      <c r="C249" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="3">
+        <v>248</v>
+      </c>
+      <c r="B250" t="s">
         <v>250</v>
       </c>
-      <c r="B249" t="s">
+      <c r="C250" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="3">
+        <v>249</v>
+      </c>
+      <c r="B251" t="s">
         <v>251</v>
       </c>
-      <c r="B250" t="s">
+      <c r="C251" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="3">
+        <v>250</v>
+      </c>
+      <c r="B252" t="s">
         <v>252</v>
       </c>
-      <c r="B251" t="s">
+      <c r="C252" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="3">
+        <v>251</v>
+      </c>
+      <c r="B253" t="s">
         <v>253</v>
       </c>
-      <c r="B252" t="s">
+      <c r="C253" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="3">
+        <v>252</v>
+      </c>
+      <c r="B254" t="s">
         <v>248</v>
       </c>
-      <c r="B253" t="s">
+      <c r="C254" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="3">
+        <v>253</v>
+      </c>
+      <c r="B255" t="s">
         <v>254</v>
       </c>
-      <c r="B254" t="s">
+      <c r="C255" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="3">
+        <v>254</v>
+      </c>
+      <c r="B256" t="s">
         <v>255</v>
       </c>
-      <c r="B255" t="s">
+      <c r="C256" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A256" s="2" t="s">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="3">
+        <v>255</v>
+      </c>
+      <c r="B257" s="2" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B258" s="2"/>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="3">
+        <v>256</v>
+      </c>
+      <c r="B258" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="3">
+        <v>257</v>
+      </c>
+      <c r="B259" t="s">
+        <v>258</v>
+      </c>
+      <c r="C259" s="2"/>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="3">
+        <v>258</v>
+      </c>
+      <c r="B260" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="3">
+        <v>259</v>
+      </c>
+      <c r="B261" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="3">
+        <v>260</v>
+      </c>
+      <c r="B262" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="3">
+        <v>261</v>
+      </c>
+      <c r="B263" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="3">
+        <v>262</v>
+      </c>
+      <c r="B264" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="3">
+        <v>263</v>
+      </c>
+      <c r="B265" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="3">
+        <v>264</v>
+      </c>
+      <c r="B266" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="3">
+        <v>265</v>
+      </c>
+      <c r="B267" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="3">
+        <v>266</v>
+      </c>
+      <c r="B268" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="3">
+        <v>267</v>
+      </c>
+      <c r="B269" t="s">
+        <v>268</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Baidu Baike administrative accounts.xlsx
+++ b/Baidu Baike administrative accounts.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Python\Baidu-Spider\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F840B870-9965-4E79-ADC6-AC9434595BE1}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315" xr2:uid="{85F4C4AC-C6B7-4C70-8A6C-73DB4F80D0AF}"/>
   </bookViews>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="275">
   <si>
     <t>冷威龙</t>
   </si>
@@ -856,6 +857,27 @@
   </si>
   <si>
     <t>铅笔在飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>du小玄</t>
+  </si>
+  <si>
+    <t>du小洋</t>
+  </si>
+  <si>
+    <t>待验证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱孤存 </t>
+  </si>
+  <si>
+    <t>du秋枫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>du南开</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -863,7 +885,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -885,6 +907,15 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -924,7 +955,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -936,6 +967,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1251,10 +1285,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6A9146-6E3E-4F20-9521-903DC7771541}">
-  <dimension ref="A1:D269"/>
+  <dimension ref="A1:D278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="E277" sqref="E277"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1360,51 +1394,47 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>269</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
+      <c r="A10" s="3"/>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>274</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>273</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>270</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -1412,10 +1442,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -1423,10 +1453,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -1434,10 +1464,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1165774571</v>
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -1445,21 +1475,21 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -1467,10 +1497,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
         <v>8</v>
@@ -1478,10 +1508,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1165774571</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -1489,21 +1519,21 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
@@ -1511,10 +1541,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
@@ -1522,10 +1552,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
         <v>8</v>
@@ -1533,10 +1563,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
@@ -1544,54 +1574,54 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
@@ -1599,10 +1629,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
@@ -1610,10 +1640,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
         <v>16</v>
@@ -1621,10 +1651,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
         <v>16</v>
@@ -1632,10 +1662,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
@@ -1643,10 +1673,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
         <v>16</v>
@@ -1654,10 +1684,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
         <v>16</v>
@@ -1665,10 +1695,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
         <v>16</v>
@@ -1676,10 +1706,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
         <v>16</v>
@@ -1687,10 +1717,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
@@ -1698,10 +1728,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
         <v>16</v>
@@ -1709,10 +1739,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
         <v>16</v>
@@ -1720,10 +1750,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
         <v>16</v>
@@ -1731,10 +1761,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
@@ -1742,10 +1772,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
         <v>16</v>
@@ -1753,10 +1783,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C45" t="s">
         <v>16</v>
@@ -1764,10 +1794,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C46" t="s">
         <v>16</v>
@@ -1775,10 +1805,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C47" t="s">
         <v>16</v>
@@ -1786,10 +1816,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C48" t="s">
         <v>16</v>
@@ -1797,10 +1827,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C49" t="s">
         <v>16</v>
@@ -1808,10 +1838,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C50" t="s">
         <v>16</v>
@@ -1819,10 +1849,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C51" t="s">
         <v>16</v>
@@ -1830,10 +1860,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C52" t="s">
         <v>16</v>
@@ -1841,21 +1871,21 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C54" t="s">
         <v>16</v>
@@ -1863,10 +1893,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
         <v>16</v>
@@ -1874,10 +1904,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B56" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C56" t="s">
         <v>16</v>
@@ -1885,21 +1915,21 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C58" t="s">
         <v>16</v>
@@ -1907,10 +1937,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C59" t="s">
         <v>16</v>
@@ -1918,21 +1948,21 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C61" t="s">
         <v>16</v>
@@ -1940,10 +1970,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C62" t="s">
         <v>16</v>
@@ -1951,10 +1981,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C63" t="s">
         <v>16</v>
@@ -1962,21 +1992,21 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C65" t="s">
         <v>16</v>
@@ -1984,10 +2014,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B66" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C66" t="s">
         <v>16</v>
@@ -1995,10 +2025,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B67" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C67" t="s">
         <v>16</v>
@@ -2006,10 +2036,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C68" t="s">
         <v>16</v>
@@ -2017,10 +2047,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C69" t="s">
         <v>16</v>
@@ -2028,10 +2058,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B70" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C70" t="s">
         <v>16</v>
@@ -2039,10 +2069,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C71" t="s">
         <v>16</v>
@@ -2050,10 +2080,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C72" t="s">
         <v>16</v>
@@ -2061,10 +2091,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B73" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C73" t="s">
         <v>16</v>
@@ -2072,10 +2102,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B74" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C74" t="s">
         <v>16</v>
@@ -2083,10 +2113,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B75" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C75" t="s">
         <v>16</v>
@@ -2094,10 +2124,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C76" t="s">
         <v>16</v>
@@ -2105,10 +2135,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B77" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C77" t="s">
         <v>16</v>
@@ -2116,10 +2146,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C78" t="s">
         <v>16</v>
@@ -2127,10 +2157,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B79" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C79" t="s">
         <v>16</v>
@@ -2138,10 +2168,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B80" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C80" t="s">
         <v>16</v>
@@ -2149,10 +2179,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B81" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C81" t="s">
         <v>16</v>
@@ -2160,10 +2190,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B82" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C82" t="s">
         <v>16</v>
@@ -2171,54 +2201,54 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C83" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B84" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C84" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C85" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B86" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C86" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C87" t="s">
         <v>53</v>
@@ -2226,10 +2256,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B88" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C88" t="s">
         <v>53</v>
@@ -2237,10 +2267,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C89" t="s">
         <v>53</v>
@@ -2248,10 +2278,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B90" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C90" t="s">
         <v>53</v>
@@ -2259,10 +2289,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B91" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C91" t="s">
         <v>53</v>
@@ -2270,10 +2300,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B92" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C92" t="s">
         <v>53</v>
@@ -2281,10 +2311,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B93" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C93" t="s">
         <v>53</v>
@@ -2292,10 +2322,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C94" t="s">
         <v>53</v>
@@ -2303,10 +2333,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B95" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C95" t="s">
         <v>53</v>
@@ -2314,10 +2344,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B96" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C96" t="s">
         <v>53</v>
@@ -2325,10 +2355,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B97" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C97" t="s">
         <v>53</v>
@@ -2336,21 +2366,21 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B98" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C98" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B99" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C99" t="s">
         <v>53</v>
@@ -2358,10 +2388,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C100" t="s">
         <v>53</v>
@@ -2369,10 +2399,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C101" t="s">
         <v>53</v>
@@ -2380,21 +2410,21 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B102" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C102" t="s">
-        <v>53</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B103" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C103" t="s">
         <v>53</v>
@@ -2402,10 +2432,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B104" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C104" t="s">
         <v>53</v>
@@ -2413,10 +2443,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B105" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C105" t="s">
         <v>53</v>
@@ -2424,10 +2454,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B106" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C106" t="s">
         <v>53</v>
@@ -2435,10 +2465,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B107" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C107" t="s">
         <v>53</v>
@@ -2446,10 +2476,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B108" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C108" t="s">
         <v>53</v>
@@ -2457,10 +2487,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B109" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C109" t="s">
         <v>53</v>
@@ -2468,10 +2498,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B110" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C110" t="s">
         <v>53</v>
@@ -2479,10 +2509,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B111" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C111" t="s">
         <v>53</v>
@@ -2490,10 +2520,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B112" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C112" t="s">
         <v>53</v>
@@ -2501,10 +2531,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B113" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C113" t="s">
         <v>53</v>
@@ -2512,10 +2542,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B114" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C114" t="s">
         <v>53</v>
@@ -2523,21 +2553,21 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B115" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B116" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C116" t="s">
         <v>53</v>
@@ -2545,10 +2575,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B117" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C117" t="s">
         <v>53</v>
@@ -2556,10 +2586,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B118" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C118" t="s">
         <v>53</v>
@@ -2567,21 +2597,21 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B119" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C119" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B120" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C120" t="s">
         <v>53</v>
@@ -2589,10 +2619,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B121" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C121" t="s">
         <v>53</v>
@@ -2600,10 +2630,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B122" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C122" t="s">
         <v>53</v>
@@ -2611,10 +2641,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B123" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C123" t="s">
         <v>53</v>
@@ -2622,10 +2652,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B124" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C124" t="s">
         <v>53</v>
@@ -2633,10 +2663,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B125" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C125" t="s">
         <v>53</v>
@@ -2644,10 +2674,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B126" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C126" t="s">
         <v>53</v>
@@ -2655,10 +2685,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B127" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C127" t="s">
         <v>53</v>
@@ -2666,10 +2696,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B128" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C128" t="s">
         <v>53</v>
@@ -2677,10 +2707,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B129" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C129" t="s">
         <v>53</v>
@@ -2688,10 +2718,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B130" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C130" t="s">
         <v>53</v>
@@ -2699,10 +2729,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B131" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C131" t="s">
         <v>53</v>
@@ -2710,10 +2740,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B132" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C132" t="s">
         <v>53</v>
@@ -2721,10 +2751,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B133" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C133" t="s">
         <v>53</v>
@@ -2732,10 +2762,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B134" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C134" t="s">
         <v>53</v>
@@ -2743,10 +2773,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B135" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C135" t="s">
         <v>53</v>
@@ -2754,10 +2784,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B136" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C136" t="s">
         <v>53</v>
@@ -2765,10 +2795,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B137" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C137" t="s">
         <v>53</v>
@@ -2776,10 +2806,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B138" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C138" t="s">
         <v>53</v>
@@ -2787,10 +2817,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B139" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C139" t="s">
         <v>53</v>
@@ -2798,10 +2828,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B140" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C140" t="s">
         <v>53</v>
@@ -2809,10 +2839,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B141" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C141" t="s">
         <v>53</v>
@@ -2820,10 +2850,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B142" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C142" t="s">
         <v>53</v>
@@ -2831,10 +2861,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B143" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C143" t="s">
         <v>53</v>
@@ -2842,10 +2872,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B144" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C144" t="s">
         <v>53</v>
@@ -2853,10 +2883,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B145" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C145" t="s">
         <v>53</v>
@@ -2864,10 +2894,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B146" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C146" t="s">
         <v>53</v>
@@ -2875,10 +2905,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B147" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C147" t="s">
         <v>53</v>
@@ -2886,10 +2916,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B148" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C148" t="s">
         <v>53</v>
@@ -2897,43 +2927,43 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B149" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C149" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B150" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C150" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B151" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C151" t="s">
-        <v>152</v>
+        <v>53</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B152" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C152" t="s">
         <v>53</v>
@@ -2941,43 +2971,43 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B153" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C153" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
+        <v>150</v>
+      </c>
+      <c r="B154" t="s">
+        <v>151</v>
+      </c>
+      <c r="C154" t="s">
         <v>152</v>
-      </c>
-      <c r="B154" t="s">
-        <v>156</v>
-      </c>
-      <c r="C154" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
+        <v>151</v>
+      </c>
+      <c r="B155" t="s">
         <v>153</v>
       </c>
-      <c r="B155" t="s">
-        <v>157</v>
-      </c>
       <c r="C155" t="s">
-        <v>99</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
+        <v>152</v>
+      </c>
+      <c r="B156" t="s">
         <v>154</v>
-      </c>
-      <c r="B156" t="s">
-        <v>158</v>
       </c>
       <c r="C156" t="s">
         <v>53</v>
@@ -2985,87 +3015,87 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
+        <v>153</v>
+      </c>
+      <c r="B157" t="s">
         <v>155</v>
       </c>
-      <c r="B157" t="s">
-        <v>159</v>
-      </c>
       <c r="C157" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
+        <v>154</v>
+      </c>
+      <c r="B158" t="s">
         <v>156</v>
       </c>
-      <c r="B158" t="s">
-        <v>161</v>
-      </c>
       <c r="C158" t="s">
-        <v>162</v>
+        <v>53</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
+        <v>155</v>
+      </c>
+      <c r="B159" t="s">
         <v>157</v>
       </c>
-      <c r="B159" t="s">
-        <v>163</v>
-      </c>
       <c r="C159" t="s">
-        <v>1</v>
+        <v>99</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
+        <v>156</v>
+      </c>
+      <c r="B160" t="s">
         <v>158</v>
       </c>
-      <c r="B160" t="s">
-        <v>164</v>
-      </c>
       <c r="C160" t="s">
-        <v>1</v>
+        <v>53</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
+        <v>157</v>
+      </c>
+      <c r="B161" t="s">
         <v>159</v>
       </c>
-      <c r="B161" t="s">
-        <v>165</v>
-      </c>
       <c r="C161" t="s">
-        <v>1</v>
+        <v>152</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B162" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C162" t="s">
-        <v>1</v>
+        <v>162</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B163" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C163" t="s">
-        <v>162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B164" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C164" t="s">
         <v>1</v>
@@ -3073,10 +3103,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B165" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C165" t="s">
         <v>1</v>
@@ -3084,10 +3114,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B166" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C166" t="s">
         <v>1</v>
@@ -3095,21 +3125,21 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B167" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="C167" t="s">
-        <v>1</v>
+        <v>162</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B168" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C168" t="s">
         <v>1</v>
@@ -3117,10 +3147,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B169" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C169" t="s">
         <v>1</v>
@@ -3128,10 +3158,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B170" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C170" t="s">
         <v>1</v>
@@ -3139,10 +3169,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B171" t="s">
-        <v>174</v>
+        <v>46</v>
       </c>
       <c r="C171" t="s">
         <v>1</v>
@@ -3150,10 +3180,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B172" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C172" t="s">
         <v>1</v>
@@ -3161,10 +3191,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B173" t="s">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="C173" t="s">
         <v>1</v>
@@ -3172,21 +3202,21 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B174" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C174" t="s">
-        <v>162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B175" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C175" t="s">
         <v>1</v>
@@ -3194,10 +3224,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B176" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C176" t="s">
         <v>1</v>
@@ -3205,10 +3235,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B177" t="s">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="C177" t="s">
         <v>1</v>
@@ -3216,21 +3246,21 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
+        <v>174</v>
+      </c>
+      <c r="B178" t="s">
         <v>176</v>
       </c>
-      <c r="B178" t="s">
-        <v>158</v>
-      </c>
       <c r="C178" t="s">
-        <v>1</v>
+        <v>162</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
+        <v>175</v>
+      </c>
+      <c r="B179" t="s">
         <v>177</v>
-      </c>
-      <c r="B179" t="s">
-        <v>180</v>
       </c>
       <c r="C179" t="s">
         <v>1</v>
@@ -3238,10 +3268,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
+        <v>176</v>
+      </c>
+      <c r="B180" t="s">
         <v>178</v>
-      </c>
-      <c r="B180" t="s">
-        <v>181</v>
       </c>
       <c r="C180" t="s">
         <v>1</v>
@@ -3249,10 +3279,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
+        <v>177</v>
+      </c>
+      <c r="B181" t="s">
         <v>179</v>
-      </c>
-      <c r="B181" t="s">
-        <v>182</v>
       </c>
       <c r="C181" t="s">
         <v>1</v>
@@ -3260,10 +3290,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B182" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C182" t="s">
         <v>1</v>
@@ -3271,21 +3301,21 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B183" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C183" t="s">
-        <v>162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B184" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C184" t="s">
         <v>1</v>
@@ -3293,10 +3323,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B185" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C185" t="s">
         <v>1</v>
@@ -3304,10 +3334,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B186" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C186" t="s">
         <v>1</v>
@@ -3315,21 +3345,21 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B187" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C187" t="s">
-        <v>1</v>
+        <v>162</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B188" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C188" t="s">
         <v>1</v>
@@ -3337,10 +3367,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B189" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C189" t="s">
         <v>1</v>
@@ -3348,10 +3378,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B190" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C190" t="s">
         <v>1</v>
@@ -3359,10 +3389,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B191" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C191" t="s">
         <v>1</v>
@@ -3370,10 +3400,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B192" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C192" t="s">
         <v>1</v>
@@ -3381,21 +3411,21 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B193" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C193" t="s">
-        <v>162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B194" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C194" t="s">
         <v>1</v>
@@ -3403,10 +3433,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B195" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C195" t="s">
         <v>1</v>
@@ -3414,10 +3444,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B196" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C196" t="s">
         <v>1</v>
@@ -3425,21 +3455,21 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B197" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C197" t="s">
-        <v>1</v>
+        <v>162</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B198" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C198" t="s">
         <v>1</v>
@@ -3447,10 +3477,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B199" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C199" t="s">
         <v>1</v>
@@ -3458,10 +3488,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B200" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C200" t="s">
         <v>1</v>
@@ -3469,10 +3499,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B201" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C201" t="s">
         <v>1</v>
@@ -3480,10 +3510,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B202" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C202" t="s">
         <v>1</v>
@@ -3491,21 +3521,21 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B203" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C203" t="s">
-        <v>162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B204" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C204" t="s">
         <v>1</v>
@@ -3513,10 +3543,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="3">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B205" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C205" t="s">
         <v>1</v>
@@ -3524,10 +3554,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="3">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B206" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C206" t="s">
         <v>1</v>
@@ -3535,21 +3565,21 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="3">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B207" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C207" t="s">
-        <v>1</v>
+        <v>162</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="3">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B208" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C208" t="s">
         <v>1</v>
@@ -3557,21 +3587,21 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="3">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B209" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C209" t="s">
-        <v>162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="3">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B210" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C210" t="s">
         <v>1</v>
@@ -3579,10 +3609,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="3">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B211" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C211" t="s">
         <v>1</v>
@@ -3590,10 +3620,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="3">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B212" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C212" t="s">
         <v>1</v>
@@ -3601,21 +3631,21 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="3">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B213" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C213" t="s">
-        <v>1</v>
+        <v>162</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="3">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B214" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C214" t="s">
         <v>1</v>
@@ -3623,10 +3653,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="3">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B215" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C215" t="s">
         <v>1</v>
@@ -3634,10 +3664,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="3">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B216" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C216" t="s">
         <v>1</v>
@@ -3645,10 +3675,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="3">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B217" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C217" t="s">
         <v>1</v>
@@ -3656,10 +3686,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="3">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B218" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C218" t="s">
         <v>1</v>
@@ -3667,21 +3697,21 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="3">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B219" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C219" t="s">
-        <v>162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="3">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B220" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C220" t="s">
         <v>1</v>
@@ -3689,10 +3719,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="3">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B221" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C221" t="s">
         <v>1</v>
@@ -3700,10 +3730,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="3">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B222" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C222" t="s">
         <v>1</v>
@@ -3711,32 +3741,32 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="3">
-        <v>221</v>
-      </c>
-      <c r="B223" s="1">
-        <v>363721182</v>
+        <v>219</v>
+      </c>
+      <c r="B223" t="s">
+        <v>220</v>
       </c>
       <c r="C223" t="s">
-        <v>1</v>
+        <v>162</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="3">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B224" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C224" t="s">
-        <v>162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="3">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B225" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C225" t="s">
         <v>1</v>
@@ -3744,10 +3774,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="3">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B226" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C226" t="s">
         <v>1</v>
@@ -3755,10 +3785,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="3">
-        <v>225</v>
-      </c>
-      <c r="B227" t="s">
-        <v>227</v>
+        <v>223</v>
+      </c>
+      <c r="B227" s="1">
+        <v>363721182</v>
       </c>
       <c r="C227" t="s">
         <v>1</v>
@@ -3766,32 +3796,32 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="3">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B228" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C228" t="s">
-        <v>1</v>
+        <v>162</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="3">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B229" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C229" t="s">
-        <v>162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="3">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B230" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C230" t="s">
         <v>1</v>
@@ -3799,10 +3829,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="3">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B231" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C231" t="s">
         <v>1</v>
@@ -3810,10 +3840,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="3">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B232" t="s">
-        <v>36</v>
+        <v>228</v>
       </c>
       <c r="C232" t="s">
         <v>1</v>
@@ -3821,21 +3851,21 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="3">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B233" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C233" t="s">
-        <v>1</v>
+        <v>162</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="3">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B234" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C234" t="s">
         <v>1</v>
@@ -3843,21 +3873,21 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="3">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B235" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C235" t="s">
-        <v>162</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="3">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B236" t="s">
-        <v>235</v>
+        <v>36</v>
       </c>
       <c r="C236" t="s">
         <v>1</v>
@@ -3865,10 +3895,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="3">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B237" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C237" t="s">
         <v>1</v>
@@ -3876,10 +3906,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="3">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B238" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C238" t="s">
         <v>1</v>
@@ -3887,21 +3917,21 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="3">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B239" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C239" t="s">
-        <v>1</v>
+        <v>162</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="3">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B240" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C240" t="s">
         <v>1</v>
@@ -3909,54 +3939,54 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="3">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B241" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="C241" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="3">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B242" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C242" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="3">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B243" t="s">
-        <v>84</v>
+        <v>238</v>
       </c>
       <c r="C243" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="3">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B244" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C244" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="3">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B245" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C245" t="s">
         <v>2</v>
@@ -3964,10 +3994,10 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="3">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B246" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C246" t="s">
         <v>2</v>
@@ -3975,10 +4005,10 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="3">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B247" t="s">
-        <v>247</v>
+        <v>84</v>
       </c>
       <c r="C247" t="s">
         <v>2</v>
@@ -3986,10 +4016,10 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="3">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B248" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C248" t="s">
         <v>2</v>
@@ -3997,10 +4027,10 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="3">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B249" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C249" t="s">
         <v>2</v>
@@ -4008,10 +4038,10 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B250" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C250" t="s">
         <v>2</v>
@@ -4019,10 +4049,10 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B251" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C251" t="s">
         <v>2</v>
@@ -4030,10 +4060,10 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="3">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B252" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C252" t="s">
         <v>2</v>
@@ -4041,10 +4071,10 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B253" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C253" t="s">
         <v>2</v>
@@ -4052,10 +4082,10 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B254" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C254" t="s">
         <v>2</v>
@@ -4063,10 +4093,10 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B255" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C255" t="s">
         <v>2</v>
@@ -4074,10 +4104,10 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B256" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C256" t="s">
         <v>2</v>
@@ -4085,107 +4115,161 @@
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="3">
-        <v>255</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
+      </c>
+      <c r="B257" t="s">
+        <v>253</v>
+      </c>
+      <c r="C257" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="3">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B258" t="s">
-        <v>257</v>
+        <v>248</v>
+      </c>
+      <c r="C258" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="3">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B259" t="s">
-        <v>258</v>
-      </c>
-      <c r="C259" s="2"/>
+        <v>254</v>
+      </c>
+      <c r="C259" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="3">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B260" t="s">
-        <v>259</v>
+        <v>255</v>
+      </c>
+      <c r="C260" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="3">
-        <v>259</v>
-      </c>
-      <c r="B261" t="s">
-        <v>260</v>
+        <v>257</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="3">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B262" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="3">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B263" t="s">
-        <v>262</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="C263" s="2"/>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="3">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B264" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="3">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B265" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="3">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B266" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="3">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B267" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="3">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B268" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="3">
+        <v>265</v>
+      </c>
+      <c r="B269" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="3">
+        <v>266</v>
+      </c>
+      <c r="B270" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="3">
         <v>267</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B271" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="3">
         <v>268</v>
+      </c>
+      <c r="B272" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" s="3">
+        <v>269</v>
+      </c>
+      <c r="B273" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B278" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
